--- a/data sources/ProjectInsights Database Table 3_16_2022.xlsx
+++ b/data sources/ProjectInsights Database Table 3_16_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\Documents\GitHub\US-Realm-Dashboard\data sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4530BFBF-7DFD-4A10-8844-39C1C362E792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF65166D-FE62-4A97-B5F0-FCDF4C290291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProjectInsights!$A$1:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>ProjectNumber</t>
   </si>
@@ -178,23 +179,6 @@
     <t>http://www.hl7.org/implement/standards/product_brief.cfm?product_id=492</t>
   </si>
   <si>
-    <t>The Office of the National Coordinator (ONC) releases periodic proposed rules, and final rules, which reference the use of Consolidated CDA (C-CDA). The Companion Guide to Consolidated Clinical Document Architecture (C-CDA) provides supplemental guidance to the Health Level Seven (HL7) CDA® R2 IG: C-CDA Templates for Clinical Notes STU. The prior version of the companion guide is specific to a rule, the 2015 ONC Certification rule.
-This project will update the guide to make it rule independent and will consider updates to meet current and proposed regulations. New C-CDA templates to support USCDI will be considered. Future regulations when published may also be considered appropriate for the scope of this project.</t>
-  </si>
-  <si>
-    <t>This project is to bring the SMART (Substitutable Medical Applications, Reusable Technologies) Application Launch specification to Health Level 7. This specification enables applications to launch from within diverse health IT systems including EHRs, personal health records, data warehouses, and research environments. Apps are given access to contextual information (e.g. what patient record is open in the surrounding environment) and are authorized to access a limited data set using OAuth 2.0. Single Sign-On is supported using OpenID Connect. The deliverables includes a set of specifications defining a context-passing, app authorization, and SSO mechanisms to support app launch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The original US FHIR Core publication profiled several key resources to meet the requirements of the ONC 2015 Common Clinical Data Set (CCDS). HL7 published US FHIR Core R1 in March 2017 (Project Insight: 1265) and produced an additional update to add 3 new profiles (Project Insight: 1372) in September 2018.
-This project will develop a new US FHIR Core profile for Clinical Notes based on the lessons of the Argonaut.
-This project will address project trackers logged against prior releases of US Core.
-Additionally, any vocabulary omissions or errors in previously developed profiles will be considered. Efforts to align with C-CDA on FHIR value sets is considered in scope if participants are available to identify gaps and recommend resolutions.
-New profiles, outside a new US Regulatory Requirement, are not in scope.
---
-Prior project which lead to creation of US FHIR Core: Project 1265
-Recent project to update US FHIR Core with 3 new profiles:Project 1372 </t>
-  </si>
-  <si>
     <t>CDA</t>
   </si>
   <si>
@@ -291,22 +275,32 @@
     <t>FHIR-I</t>
   </si>
   <si>
-    <t>The existing FHIR standard is an excellent method to make atomic healthcare data accessible via API. In addition to atomic data for individual patients, a major use case in health care is the transmission of bulk data among institutions and across data warehouses or other interfaces en masse. The need to support population level data transfer in FHIR is already here.
-Currently the core FHIR specification contains a reference to the NDJSON format (https://www.hl7.org/fhir/nd-json.html) received through the asynchronous pattern (https://www.hl7.org/fhir/async.html). However the core specification requires additional clarity to define more specific usage when data is transmitted between organizations for real world use cases. Specifically this Implementation Guide will add the ability to export groups of patients, only recent data since a date, and specific examples for usage in the U.S. market.
-To that end, this Implementation Guide will be written to provide guidance for enabling secure bulk data transfer for FHIR resources. The guide will define the application programming interfaces (APIs) through which an authenticated and authorized clients may request a bulk data export from a server, receive status information regarding progress in the generation of the requested files, and receive these files securely. The guide will be utilizing the following standards:
-HL7 Fast Health Interoperability Resources (FHIR) Release 2, 3, 4, https://www.hl7.org/fhir/
-Newline-delimited JSON(NDJSON) http://ndjson.org
-The OAuth 2.0 Authorization Framework, RFC6749, https://tools.ietf.org/html/rfc6749
-The JavaScript Object Notation (JSON) Data Interchange Format, RFC7159. https://tools.ietf.org/html/rfc7159
-Transport Layer Security (TLS) Protocol Version 1.2. RFC5246). https://tools.ietf.org/html/rfc5246
-The OAuth 2.0 Authorization Framework: Bearer Token Usage, RFC6750. https://tools.ietf.org/html/rfc6750</t>
+    <t>http://hl7.org/fhir/us/home-lab-report</t>
+  </si>
+  <si>
+    <t>HL7 CDA® R2 Implementation Guide: Consolidated CDA Templates for Clinical Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The C-CDA R2.1 Implmentation Guide (IG) provides an overview of the Clinical Document Architecture (CDA) base standard and provides information on how to understand and use CDA templates. CDA templates for representing common clinical document types are defined in the IG at the document, section, entry level, and other supporting templates. </t>
+  </si>
+  <si>
+    <t>The C-CDA Companion Guide provides implementation and best practice guidance for Consolidated CDA R2.1 not found in the C-CDA R 2.1 IG. Guidance provided is in response to industry challenges or or to represent data classes and elements defined in the ONC U.S. Core Data for Interoperability (USCDI).</t>
+  </si>
+  <si>
+    <t>SMART App Launch 2.0.0 specification defines foundational patterns based on OAuth 2.0 for client applications to authorize, authenticate, and integrate with FHIR-based data systems (e.g., Electronic Health Record system, Patient Portal, or Beneficiary Portal).</t>
+  </si>
+  <si>
+    <t>Bulk Data is a FHIR based approach for exporting large data sets from a FHIR server to a client application</t>
+  </si>
+  <si>
+    <t>The US Core FHIR Implementation Guide defines minimum conformance requirements for accessing patient data. The guide defines FHIR representation of data classes and elements defined in the ONC U.S. Core Data for Interoperability (USCDI).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +442,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="34">
@@ -798,7 +809,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -825,6 +836,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1184,8 +1204,8 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,35 +1324,35 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>49</v>
+      <c r="C2" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>16</v>
@@ -1344,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X2" s="3">
         <v>45413</v>
@@ -1359,14 +1379,14 @@
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>50</v>
+      <c r="C3" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -1375,16 +1395,16 @@
         <v>43</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>21</v>
@@ -1396,19 +1416,19 @@
         <v>11</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X3" s="3">
         <v>44562</v>
@@ -1423,15 +1443,15 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>83</v>
+      <c r="C4" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>23</v>
@@ -1440,16 +1460,16 @@
         <v>46</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>16</v>
@@ -1461,10 +1481,10 @@
         <v>12</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X4" s="3">
         <v>45413</v>
@@ -1477,11 +1497,11 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F5" s="9">
         <v>3</v>
@@ -1493,13 +1513,13 @@
         <v>47</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>21</v>
@@ -1511,7 +1531,7 @@
         <v>13</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X5" s="3">
         <v>45901</v>
@@ -1524,31 +1544,31 @@
         <v>1742</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P6" s="2"/>
       <c r="R6" t="s">
@@ -1562,8 +1582,14 @@
       <c r="A7" s="2">
         <v>1520</v>
       </c>
+      <c r="B7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4">
         <v>2.1</v>
@@ -1572,16 +1598,16 @@
         <v>20</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1596,13 +1622,12 @@
     <hyperlink ref="K4" r:id="rId7" xr:uid="{5C6FF8ED-6527-4E4E-A8C5-4E192526B6DA}"/>
     <hyperlink ref="L4" r:id="rId8" location="ONCGrantProjectPage-Project:FlatFHIR(BulkData&amp;Push)" xr:uid="{05E48644-1971-4DF7-9DCB-D4750B5C1C25}"/>
     <hyperlink ref="N4" r:id="rId9" xr:uid="{B2B6A189-E5EE-4A19-9F3F-4A863B4C6207}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{7DA8A7EE-6ADF-4B80-840D-1BB5E01C9DEF}"/>
-    <hyperlink ref="L6" r:id="rId11" xr:uid="{3E93F8F9-7FBE-45E9-8EFC-F234D9767081}"/>
-    <hyperlink ref="K6" r:id="rId12" xr:uid="{40F70499-EB7A-4645-B6D4-414FEB2FB022}"/>
-    <hyperlink ref="I7" r:id="rId13" xr:uid="{88298674-BDC2-4FC4-A350-A363CFBFE82B}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{3E93F8F9-7FBE-45E9-8EFC-F234D9767081}"/>
+    <hyperlink ref="K6" r:id="rId11" xr:uid="{40F70499-EB7A-4645-B6D4-414FEB2FB022}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{88298674-BDC2-4FC4-A350-A363CFBFE82B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
